--- a/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
+++ b/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="557">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1798,6 +1798,13 @@
   <si>
     <t>수학</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0020</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2097,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2158,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2504,14 +2511,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>555</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1263-5535</v>
+        <v>010-4363-7040</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2533,14 +2540,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6530-5462</v>
+        <v>010-8025-6943</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2562,14 +2569,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4459-0211</v>
+        <v>010-1340-1856</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2591,14 +2598,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6054-1417</v>
+        <v>010-2193-5107</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2620,14 +2627,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6841-5428</v>
+        <v>010-3939-8314</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2649,14 +2656,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6988-3553</v>
+        <v>010-4735-6383</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2678,14 +2685,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1328-6833</v>
+        <v>010-7577-7840</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2707,14 +2714,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9283-7569</v>
+        <v>010-2183-7949</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2736,14 +2743,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5775-3906</v>
+        <v>010-8456-7654</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2765,14 +2772,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3276-5201</v>
+        <v>010-6292-8473</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2794,14 +2801,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5487-3968</v>
+        <v>010-4578-1545</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2823,14 +2830,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4003-7258</v>
+        <v>010-7029-5146</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2852,14 +2859,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5535-4615</v>
+        <v>010-2896-4299</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2881,14 +2888,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9223-5401</v>
+        <v>010-5454-8947</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2910,14 +2917,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4790-5748</v>
+        <v>010-6078-0148</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2939,14 +2946,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5256-4372</v>
+        <v>010-4369-0939</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2968,14 +2975,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7371-1608</v>
+        <v>010-8557-2393</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2997,14 +3004,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5803-6018</v>
+        <v>010-2541-0943</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3026,14 +3033,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5429-9479</v>
+        <v>010-8403-7293</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3055,14 +3062,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>556</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5085-6830</v>
+        <v>010-2190-9155</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3084,14 +3091,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4269-7464</v>
+        <v>010-5875-1732</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3113,14 +3120,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7969-2902</v>
+        <v>010-3485-0186</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3142,14 +3149,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8712-2439</v>
+        <v>010-5747-6968</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3171,14 +3178,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5674-2422</v>
+        <v>010-3999-7624</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3200,14 +3207,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7341-3093</v>
+        <v>010-7186-2298</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3229,14 +3236,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4299-3377</v>
+        <v>010-5792-4243</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3258,14 +3265,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>477</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6974-3109</v>
+        <v>010-2936-1079</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3287,14 +3294,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5305-5717</v>
+        <v>010-8295-7507</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3316,14 +3323,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6537-4910</v>
+        <v>010-3476-3625</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3345,14 +3352,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1106-7536</v>
+        <v>010-7646-2755</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3374,14 +3381,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9039-4424</v>
+        <v>010-8477-5981</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3403,14 +3410,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2758-2008</v>
+        <v>010-4033-2124</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3432,14 +3439,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3604-2527</v>
+        <v>010-8475-1273</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3461,14 +3468,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3898-0600</v>
+        <v>010-5079-0017</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3490,14 +3497,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1269-7286</v>
+        <v>010-3578-8522</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3519,14 +3526,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6343-1952</v>
+        <v>010-6896-5828</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3548,14 +3555,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1722-3477</v>
+        <v>010-4640-3082</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3577,14 +3584,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4092-9689</v>
+        <v>010-6787-3716</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3606,14 +3613,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1112-6777</v>
+        <v>010-5842-2904</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3635,14 +3642,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3774-1487</v>
+        <v>010-9224-5364</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3664,14 +3671,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5124-1550</v>
+        <v>010-3420-4299</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3693,14 +3700,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>492</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9823-2567</v>
+        <v>010-8182-7849</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3722,14 +3729,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4159-4881</v>
+        <v>010-3563-0107</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3751,14 +3758,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1922-2733</v>
+        <v>010-1295-7378</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3780,14 +3787,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4686-0578</v>
+        <v>010-2863-0342</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3809,14 +3816,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>496</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7442-5819</v>
+        <v>010-9936-6735</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3838,14 +3845,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>497</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8265-2788</v>
+        <v>010-4579-6322</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3867,14 +3874,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7721-7256</v>
+        <v>010-5590-5582</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3896,14 +3903,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8127-0326</v>
+        <v>010-2799-0967</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3925,14 +3932,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6949-5323</v>
+        <v>010-9595-0425</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3954,14 +3961,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3165-0784</v>
+        <v>010-8562-5358</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3983,14 +3990,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6358-2998</v>
+        <v>010-4708-5154</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4012,14 +4019,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7162-8474</v>
+        <v>010-4156-3397</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4041,14 +4048,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5998-2135</v>
+        <v>010-2419-2202</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4070,14 +4077,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>505</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3869-2313</v>
+        <v>010-3380-5877</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4099,14 +4106,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4001-0575</v>
+        <v>010-9775-9682</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4128,14 +4135,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9134-1894</v>
+        <v>010-6361-1867</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4157,14 +4164,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8307-1464</v>
+        <v>010-2653-4303</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4186,14 +4193,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3541-0811</v>
+        <v>010-6292-5007</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4215,14 +4222,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2853-1698</v>
+        <v>010-5257-7228</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4244,14 +4251,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1517-3394</v>
+        <v>010-7293-4236</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4273,14 +4280,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5515-0940</v>
+        <v>010-9051-5445</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4302,14 +4309,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>513</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4756-6661</v>
+        <v>010-4445-6277</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4331,14 +4338,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>514</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7547-1020</v>
+        <v>010-1698-4391</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4360,14 +4367,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>515</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4180-8061</v>
+        <v>010-6350-9979</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4389,14 +4396,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-5106-5603</v>
+        <v>010-7762-2306</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4418,14 +4425,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3815-2744</v>
+        <v>010-6256-3221</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4447,14 +4454,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>518</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5625-8578</v>
+        <v>010-5462-3362</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4476,14 +4483,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>519</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2741-2529</v>
+        <v>010-1249-9511</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4505,14 +4512,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>520</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2902-8612</v>
+        <v>010-9374-7938</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4534,14 +4541,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1176-9503</v>
+        <v>010-5215-7610</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4563,14 +4570,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2016-2136</v>
+        <v>010-4472-7434</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4592,14 +4599,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4280-9274</v>
+        <v>010-2001-3351</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4621,14 +4628,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>524</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2005-6173</v>
+        <v>010-2829-5287</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4650,14 +4657,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1630-2704</v>
+        <v>010-4356-0432</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4679,14 +4686,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9036-5323</v>
+        <v>010-7403-0956</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4708,14 +4715,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4665-4473</v>
+        <v>010-9392-5565</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4737,14 +4744,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3670-2523</v>
+        <v>010-3856-6893</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4766,14 +4773,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>529</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1279-8428</v>
+        <v>010-9395-2986</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4795,14 +4802,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3120-4457</v>
+        <v>010-3292-3138</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4824,14 +4831,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2561-7185</v>
+        <v>010-1789-2545</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4853,14 +4860,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5676-3975</v>
+        <v>010-7482-5599</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4882,14 +4889,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9376-9545</v>
+        <v>010-6947-5034</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4911,14 +4918,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>534</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8744-6641</v>
+        <v>010-2167-9753</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4940,14 +4947,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1044-1531</v>
+        <v>010-8489-3312</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4969,14 +4976,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2295-8673</v>
+        <v>010-9371-2290</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4998,14 +5005,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1324-0567</v>
+        <v>010-3055-5826</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5027,14 +5034,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2170-2522</v>
+        <v>010-7211-9228</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5056,14 +5063,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4317-1526</v>
+        <v>010-3471-4017</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5085,14 +5092,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3716-0919</v>
+        <v>010-6023-0852</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5114,14 +5121,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>541</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3137-4237</v>
+        <v>010-8942-5472</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5143,14 +5150,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>542</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4123-3928</v>
+        <v>010-8119-3420</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5172,14 +5179,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9120-2526</v>
+        <v>010-1804-3740</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5201,14 +5208,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9956-1353</v>
+        <v>010-4993-7026</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5230,14 +5237,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>545</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3295-0578</v>
+        <v>010-4076-0615</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5259,14 +5266,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1613-1932</v>
+        <v>010-8386-3726</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5288,14 +5295,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4598-0113</v>
+        <v>010-6452-7816</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5317,14 +5324,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>548</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6443-7040</v>
+        <v>010-2902-6779</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5346,14 +5353,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7640-7049</v>
+        <v>010-7912-1772</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5374,15 +5381,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1429-1447</v>
+        <v>010-9063-1292</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5407,7 +5414,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5560,7 +5567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -15449,39 +15456,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15493,39 +15500,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15537,35 +15544,35 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
@@ -15581,31 +15588,31 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
@@ -15625,39 +15632,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15669,39 +15676,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15713,31 +15720,31 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
@@ -15757,39 +15764,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15801,39 +15808,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15845,39 +15852,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15889,27 +15896,27 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
@@ -15917,11 +15924,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15933,39 +15940,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15977,39 +15984,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16021,39 +16028,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16065,39 +16072,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16109,39 +16116,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16153,11 +16160,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
@@ -16165,27 +16172,27 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16197,39 +16204,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16241,39 +16248,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16285,39 +16292,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16329,31 +16336,31 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
@@ -16373,39 +16380,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16417,39 +16424,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16461,39 +16468,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16505,39 +16512,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16549,39 +16556,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16593,39 +16600,39 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16637,39 +16644,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16681,39 +16688,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16725,39 +16732,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16769,39 +16776,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16813,39 +16820,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16857,39 +16864,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16901,39 +16908,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16945,39 +16952,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16989,31 +16996,31 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
@@ -17033,39 +17040,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17077,39 +17084,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17121,39 +17128,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="8"/>
         <v>62</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17165,39 +17172,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17209,39 +17216,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17253,39 +17260,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17297,39 +17304,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="8"/>
         <v>52</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" ca="1" si="8"/>
         <v>60</v>
-      </c>
-      <c r="I44">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17345,15 +17352,15 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
@@ -17361,19 +17368,19 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17385,19 +17392,19 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
@@ -17405,19 +17412,19 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17429,39 +17436,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17473,39 +17480,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17517,39 +17524,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17561,39 +17568,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17605,39 +17612,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17649,39 +17656,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17693,39 +17700,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17737,39 +17744,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17781,39 +17788,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17825,39 +17832,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17869,39 +17876,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17913,39 +17920,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17957,15 +17964,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
@@ -17973,23 +17980,23 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -18001,35 +18008,35 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
@@ -18045,39 +18052,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18089,7 +18096,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
@@ -18097,31 +18104,31 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="8"/>
         <v>51</v>
       </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="G62">
-        <f t="shared" ca="1" si="8"/>
-        <v>58</v>
-      </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
         <v>71</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18133,39 +18140,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18177,39 +18184,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
-      </c>
-      <c r="G64">
-        <f t="shared" ca="1" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="H64">
-        <f t="shared" ca="1" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="I64">
-        <f t="shared" ca="1" si="8"/>
-        <v>92</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18221,15 +18228,15 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
@@ -18237,23 +18244,23 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18265,31 +18272,31 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
@@ -18309,39 +18316,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18353,39 +18360,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="8"/>
         <v>50</v>
-      </c>
-      <c r="H68">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ca="1" si="8"/>
-        <v>51</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18397,39 +18404,39 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18441,27 +18448,27 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
@@ -18469,11 +18476,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18485,39 +18492,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18529,39 +18536,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18573,39 +18580,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18617,23 +18624,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
@@ -18641,15 +18648,15 @@
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18661,39 +18668,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
-      <c r="G75">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="H75">
-        <f t="shared" ca="1" si="8"/>
-        <v>99</v>
-      </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18705,39 +18712,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18749,39 +18756,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="8"/>
         <v>67</v>
       </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
-      </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18793,39 +18800,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18837,39 +18844,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="8"/>
         <v>53</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="H79">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="I79">
-        <f t="shared" ca="1" si="8"/>
-        <v>74</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18881,39 +18888,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18925,39 +18932,39 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18969,39 +18976,39 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -19013,39 +19020,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19057,39 +19064,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19101,35 +19108,35 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
@@ -19145,39 +19152,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19189,39 +19196,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19233,39 +19240,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19277,39 +19284,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19321,39 +19328,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19365,39 +19372,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19409,39 +19416,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19453,39 +19460,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19497,39 +19504,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19541,39 +19548,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="8"/>
         <v>51</v>
       </c>
-      <c r="H95">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
-      </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19589,35 +19596,35 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19629,39 +19636,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19673,39 +19680,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19717,39 +19724,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19761,39 +19768,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19805,39 +19812,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -19892,23 +19899,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19920,23 +19927,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19948,23 +19955,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19976,23 +19983,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -20004,23 +20011,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20032,23 +20039,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20060,23 +20067,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20088,23 +20095,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20116,23 +20123,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20148,19 +20155,19 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20172,23 +20179,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20200,23 +20207,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -20228,23 +20235,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20256,23 +20263,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20284,23 +20291,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20312,23 +20319,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20340,23 +20347,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20368,23 +20375,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20396,23 +20403,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20424,23 +20431,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20452,23 +20459,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20480,23 +20487,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20508,23 +20515,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20536,23 +20543,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20564,23 +20571,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20592,23 +20599,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20620,7 +20627,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
@@ -20628,15 +20635,15 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20648,19 +20655,19 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
@@ -20676,23 +20683,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20704,23 +20711,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20732,23 +20739,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20760,23 +20767,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20788,23 +20795,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20816,23 +20823,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20844,23 +20851,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20872,23 +20879,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20904,19 +20911,19 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20928,23 +20935,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20956,23 +20963,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20984,23 +20991,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21012,23 +21019,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21040,23 +21047,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21068,23 +21075,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21096,23 +21103,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21124,23 +21131,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21152,23 +21159,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21180,23 +21187,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21208,11 +21215,11 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
@@ -21220,11 +21227,11 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21236,23 +21243,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21264,23 +21271,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21292,23 +21299,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21320,23 +21327,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21348,23 +21355,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21380,19 +21387,19 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21404,23 +21411,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21432,19 +21439,19 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
@@ -21460,23 +21467,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21488,7 +21495,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
@@ -21496,15 +21503,15 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21516,23 +21523,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21544,7 +21551,7 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
@@ -21552,15 +21559,15 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21572,23 +21579,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21600,23 +21607,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21628,23 +21635,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21656,23 +21663,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21684,23 +21691,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21712,23 +21719,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -21740,23 +21747,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21768,11 +21775,11 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
@@ -21780,11 +21787,11 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21796,23 +21803,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21824,23 +21831,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21852,23 +21859,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21880,23 +21887,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21908,23 +21915,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21936,23 +21943,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21964,23 +21971,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21992,23 +21999,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22020,23 +22027,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22048,23 +22055,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22076,23 +22083,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22104,23 +22111,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22132,23 +22139,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22160,23 +22167,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22188,23 +22195,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22216,23 +22223,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22244,23 +22251,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22272,23 +22279,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22300,23 +22307,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22328,23 +22335,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22356,23 +22363,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22384,23 +22391,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22412,23 +22419,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22440,23 +22447,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22468,23 +22475,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22496,23 +22503,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22524,23 +22531,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22552,23 +22559,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22580,23 +22587,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22608,23 +22615,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22636,15 +22643,15 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
@@ -22664,23 +22671,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
